--- a/biology/Histoire de la zoologie et de la botanique/Lucien_Plantefol/Lucien_Plantefol.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lucien_Plantefol/Lucien_Plantefol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucien Plantefol, né le 24 avril 1891 à Falaise (Calvados) et mort le 9 septembre 1983 à Paris, est un botaniste français qui a élaboré la théorie des hélices foliaires, c'est-à-dire l'insertion spécifique des feuilles d'un végétal sur sa tige.
 Il a été élu membre de l'Académie des sciences le 13 mai 1957.
@@ -512,14 +524,16 @@
           <t>Vie et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucien Plantefol a passé sa jeunesse à Montbéliard.
-Ancien élève de l'École normale supérieure (promotion littéraire 1912)[1], mobilisé en 1914 comme sous-lieutenant au 82e régiment d'infanterie, il a été très rapidement blessé dans les combats de la Meuse et a dû revenir à l'arrière pour travailler dans les laboratoires de physiologie et de chimie de la Défense nationale. C'est là qu'il aida à la mise au point du masque anti gaz de combat.
-Licencié en philosophie, il obtient l'agrégation de sciences naturelles[2] en 1920, puis un doctorat ès sciences naturelles.
+Ancien élève de l'École normale supérieure (promotion littéraire 1912), mobilisé en 1914 comme sous-lieutenant au 82e régiment d'infanterie, il a été très rapidement blessé dans les combats de la Meuse et a dû revenir à l'arrière pour travailler dans les laboratoires de physiologie et de chimie de la Défense nationale. C'est là qu'il aida à la mise au point du masque anti gaz de combat.
+Licencié en philosophie, il obtient l'agrégation de sciences naturelles en 1920, puis un doctorat ès sciences naturelles.
 Il fut ensuite successivement agrégé-préparateur à l'École normale supérieure puis assistant et sous-directeur au Collège de France où il se consacra à l'étude de la physiologie végétale.
 Devenu professeur de botanique à la Sorbonne, il réalisera son œuvre fondamentale, l'observation de la disposition des feuilles sur la tige d'une plante en plusieurs séries longitudinales de forme hélicoïdale dont le nom sera « hélices foliaires ».
-Plantefol a effectué d'importantes études sur les fleurs, avec des recherches sur l'origine des pétales de certaines fleurs, et aussi traité de nombreuses questions d'histoire des sciences. Il s'est tout particulièrement intéressé au XVIIIe siècle et aux connaissances botaniques de cette époque[3].
+Plantefol a effectué d'importantes études sur les fleurs, avec des recherches sur l'origine des pétales de certaines fleurs, et aussi traité de nombreuses questions d'histoire des sciences. Il s'est tout particulièrement intéressé au XVIIIe siècle et aux connaissances botaniques de cette époque.
 Il a enfin écrit un Cours de botanique et de biologie végétale qui a été considéré comme l'ouvrage de base dans l'enseignement de cette discipline.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hydratation et respiration des mousses : hydratation et nature des phénomènes respiratoires, avec André Mayer, Paris, Doin, 1925.
 Étude biologique de l'Hypnum triquetrum, relations entre la morphologie, la physiologie et l'écologie d'une espèce végétale, thèse de doctorat, Paris, Masson, 1926.
